--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,10 +97,7 @@
     <t>Notch4</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H2">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I2">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J2">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.9110121915341</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N2">
-        <v>30.9110121915341</v>
+        <v>108.050464</v>
       </c>
       <c r="O2">
-        <v>0.8971396701936101</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P2">
-        <v>0.8971396701936101</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q2">
-        <v>763.1073080807938</v>
+        <v>1010.724918006766</v>
       </c>
       <c r="R2">
-        <v>763.1073080807938</v>
+        <v>9096.524262060895</v>
       </c>
       <c r="S2">
-        <v>0.8799355995788949</v>
+        <v>0.8488410170257608</v>
       </c>
       <c r="T2">
-        <v>0.8799355995788949</v>
+        <v>0.8488410170257604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H3">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I3">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J3">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.647754508802609</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
-        <v>0.647754508802609</v>
+        <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01879997532247603</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P3">
-        <v>0.01879997532247603</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q3">
-        <v>15.99126539262717</v>
+        <v>18.39750918689711</v>
       </c>
       <c r="R3">
-        <v>15.99126539262717</v>
+        <v>165.577582682074</v>
       </c>
       <c r="S3">
-        <v>0.01843945609258512</v>
+        <v>0.01545085129566577</v>
       </c>
       <c r="T3">
-        <v>0.01843945609258512</v>
+        <v>0.01545085129566577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H4">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I4">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J4">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.04547765709317</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N4">
-        <v>1.04547765709317</v>
+        <v>2.236249</v>
       </c>
       <c r="O4">
-        <v>0.03034321473097013</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P4">
-        <v>0.03034321473097013</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q4">
-        <v>25.80994875287483</v>
+        <v>20.91830523900122</v>
       </c>
       <c r="R4">
-        <v>25.80994875287483</v>
+        <v>188.264747151011</v>
       </c>
       <c r="S4">
-        <v>0.02976133564764254</v>
+        <v>0.01756790119367595</v>
       </c>
       <c r="T4">
-        <v>0.02976133564764254</v>
+        <v>0.01756790119367595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H5">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I5">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J5">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.97320244330446</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N5">
-        <v>0.97320244330446</v>
+        <v>3.375662</v>
       </c>
       <c r="O5">
-        <v>0.02824554930805219</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P5">
-        <v>0.02824554930805219</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q5">
-        <v>24.02567383190114</v>
+        <v>31.57659460091311</v>
       </c>
       <c r="R5">
-        <v>24.02567383190114</v>
+        <v>284.189351408218</v>
       </c>
       <c r="S5">
-        <v>0.02770389627342239</v>
+        <v>0.02651909357108558</v>
       </c>
       <c r="T5">
-        <v>0.02770389627342239</v>
+        <v>0.02651909357108557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H6">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I6">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J6">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.877625490142341</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N6">
-        <v>0.877625490142341</v>
+        <v>2.938577</v>
       </c>
       <c r="O6">
-        <v>0.02547159044489152</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P6">
-        <v>0.02547159044489152</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q6">
-        <v>21.66614348102883</v>
+        <v>27.48801705637811</v>
       </c>
       <c r="R6">
-        <v>21.66614348102883</v>
+        <v>247.392153507403</v>
       </c>
       <c r="S6">
-        <v>0.02498313245418819</v>
+        <v>0.0230853676786479</v>
       </c>
       <c r="T6">
-        <v>0.02498313245418819</v>
+        <v>0.0230853676786479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.263600763192222</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H7">
-        <v>0.263600763192222</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I7">
-        <v>0.01047285533183945</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J7">
-        <v>0.01047285533183945</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.9110121915341</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N7">
-        <v>30.9110121915341</v>
+        <v>3.081851</v>
       </c>
       <c r="O7">
-        <v>0.8971396701936101</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P7">
-        <v>0.8971396701936101</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q7">
-        <v>8.148166404732466</v>
+        <v>28.82822973609878</v>
       </c>
       <c r="R7">
-        <v>8.148166404732466</v>
+        <v>259.454067624889</v>
       </c>
       <c r="S7">
-        <v>0.009395613978391837</v>
+        <v>0.02421092367693912</v>
       </c>
       <c r="T7">
-        <v>0.009395613978391837</v>
+        <v>0.02421092367693911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H8">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I8">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J8">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.647754508802609</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N8">
-        <v>0.647754508802609</v>
+        <v>108.050464</v>
       </c>
       <c r="O8">
-        <v>0.01879997532247603</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P8">
-        <v>0.01879997532247603</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q8">
-        <v>0.1707485828815706</v>
+        <v>6.231186219630223</v>
       </c>
       <c r="R8">
-        <v>0.1707485828815706</v>
+        <v>56.080675976672</v>
       </c>
       <c r="S8">
-        <v>0.0001968894217944432</v>
+        <v>0.005233161222915862</v>
       </c>
       <c r="T8">
-        <v>0.0001968894217944432</v>
+        <v>0.005233161222915861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H9">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I9">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J9">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.04547765709317</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
-        <v>1.04547765709317</v>
+        <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.03034321473097013</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P9">
-        <v>0.03034321473097013</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q9">
-        <v>0.2755887083101758</v>
+        <v>0.1134218655131111</v>
       </c>
       <c r="R9">
-        <v>0.2755887083101758</v>
+        <v>1.020796789618</v>
       </c>
       <c r="S9">
-        <v>0.0003177800981803899</v>
+        <v>9.525552399061738E-05</v>
       </c>
       <c r="T9">
-        <v>0.0003177800981803899</v>
+        <v>9.525552399061737E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H10">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I10">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J10">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.97320244330446</v>
+        <v>0.7454163333333333</v>
       </c>
       <c r="N10">
-        <v>0.97320244330446</v>
+        <v>2.236249</v>
       </c>
       <c r="O10">
-        <v>0.02824554930805219</v>
+        <v>0.01838271206698645</v>
       </c>
       <c r="P10">
-        <v>0.02824554930805219</v>
+        <v>0.01838271206698644</v>
       </c>
       <c r="Q10">
-        <v>0.2565369067955908</v>
+        <v>0.1289627405252222</v>
       </c>
       <c r="R10">
-        <v>0.2565369067955908</v>
+        <v>1.160664664727</v>
       </c>
       <c r="S10">
-        <v>0.0002958115516715686</v>
+        <v>0.0001083072771587948</v>
       </c>
       <c r="T10">
-        <v>0.0002958115516715686</v>
+        <v>0.0001083072771587947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H11">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I11">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J11">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.877625490142341</v>
+        <v>1.125220666666667</v>
       </c>
       <c r="N11">
-        <v>0.877625490142341</v>
+        <v>3.375662</v>
       </c>
       <c r="O11">
-        <v>0.02547159044489152</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="P11">
-        <v>0.02547159044489152</v>
+        <v>0.02774906666541499</v>
       </c>
       <c r="Q11">
-        <v>0.231342748998469</v>
+        <v>0.1946718020251111</v>
       </c>
       <c r="R11">
-        <v>0.231342748998469</v>
+        <v>1.752046218226</v>
       </c>
       <c r="S11">
-        <v>0.000266760281801213</v>
+        <v>0.0001634919724182823</v>
       </c>
       <c r="T11">
-        <v>0.000266760281801213</v>
+        <v>0.0001634919724182823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.219071913067304</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H12">
-        <v>0.219071913067304</v>
+        <v>0.519023</v>
       </c>
       <c r="I12">
-        <v>0.008703724621427354</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J12">
-        <v>0.008703724621427354</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.9110121915341</v>
+        <v>0.9795256666666666</v>
       </c>
       <c r="N12">
-        <v>30.9110121915341</v>
+        <v>2.938577</v>
       </c>
       <c r="O12">
-        <v>0.8971396701936101</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="P12">
-        <v>0.8971396701936101</v>
+        <v>0.02415608229569642</v>
       </c>
       <c r="Q12">
-        <v>6.771734575646132</v>
+        <v>0.1694654500301111</v>
       </c>
       <c r="R12">
-        <v>6.771734575646132</v>
+        <v>1.525189050271</v>
       </c>
       <c r="S12">
-        <v>0.00780845663632334</v>
+        <v>0.0001423228243328268</v>
       </c>
       <c r="T12">
-        <v>0.00780845663632334</v>
+        <v>0.0001423228243328268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.219071913067304</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H13">
-        <v>0.219071913067304</v>
+        <v>0.519023</v>
       </c>
       <c r="I13">
-        <v>0.008703724621427354</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J13">
-        <v>0.008703724621427354</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.647754508802609</v>
+        <v>1.027283666666667</v>
       </c>
       <c r="N13">
-        <v>0.647754508802609</v>
+        <v>3.081851</v>
       </c>
       <c r="O13">
-        <v>0.01879997532247603</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="P13">
-        <v>0.01879997532247603</v>
+        <v>0.02533384232540931</v>
       </c>
       <c r="Q13">
-        <v>0.1419048194413594</v>
+        <v>0.1777279501747778</v>
       </c>
       <c r="R13">
-        <v>0.1419048194413594</v>
+        <v>1.599551551573</v>
       </c>
       <c r="S13">
-        <v>0.0001636298080964612</v>
+        <v>0.0001492619517858292</v>
       </c>
       <c r="T13">
-        <v>0.0001636298080964612</v>
+        <v>0.0001492619517858292</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H14">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I14">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J14">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.04547765709317</v>
+        <v>36.01682133333333</v>
       </c>
       <c r="N14">
-        <v>1.04547765709317</v>
+        <v>108.050464</v>
       </c>
       <c r="O14">
-        <v>0.03034321473097013</v>
+        <v>0.888210824651586</v>
       </c>
       <c r="P14">
-        <v>0.03034321473097013</v>
+        <v>0.8882108246515859</v>
       </c>
       <c r="Q14">
-        <v>0.2290347904085236</v>
+        <v>11.53818080384711</v>
       </c>
       <c r="R14">
-        <v>0.2290347904085236</v>
+        <v>103.843627234624</v>
       </c>
       <c r="S14">
-        <v>0.0002640989851472019</v>
+        <v>0.009690155010207363</v>
       </c>
       <c r="T14">
-        <v>0.0002640989851472019</v>
+        <v>0.009690155010207358</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H15">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I15">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J15">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.97320244330446</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
-        <v>0.97320244330446</v>
+        <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.02824554930805219</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="P15">
-        <v>0.02824554930805219</v>
+        <v>0.01616747199490695</v>
       </c>
       <c r="Q15">
-        <v>0.2132013210564825</v>
+        <v>0.2100213258395556</v>
       </c>
       <c r="R15">
-        <v>0.2132013210564825</v>
+        <v>1.890191932556</v>
       </c>
       <c r="S15">
-        <v>0.0002458414829582342</v>
+        <v>0.0001763830223700427</v>
       </c>
       <c r="T15">
-        <v>0.0002458414829582342</v>
+        <v>0.0001763830223700427</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3203553333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.961066</v>
+      </c>
+      <c r="I16">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="J16">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.7454163333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.236249</v>
+      </c>
+      <c r="O16">
+        <v>0.01838271206698645</v>
+      </c>
+      <c r="P16">
+        <v>0.01838271206698644</v>
+      </c>
+      <c r="Q16">
+        <v>0.2387980979371111</v>
+      </c>
+      <c r="R16">
+        <v>2.149182881434</v>
+      </c>
+      <c r="S16">
+        <v>0.0002005507301793837</v>
+      </c>
+      <c r="T16">
+        <v>0.0002005507301793836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3203553333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.961066</v>
+      </c>
+      <c r="I17">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="J17">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.125220666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.375662</v>
+      </c>
+      <c r="O17">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="P17">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="Q17">
+        <v>0.3604704417435555</v>
+      </c>
+      <c r="R17">
+        <v>3.244233975692</v>
+      </c>
+      <c r="S17">
+        <v>0.0003027352852651017</v>
+      </c>
+      <c r="T17">
+        <v>0.0003027352852651017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3203553333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.961066</v>
+      </c>
+      <c r="I18">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="J18">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9795256666666666</v>
+      </c>
+      <c r="N18">
+        <v>2.938577</v>
+      </c>
+      <c r="O18">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="P18">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="Q18">
+        <v>0.3137962714535555</v>
+      </c>
+      <c r="R18">
+        <v>2.824166443082</v>
+      </c>
+      <c r="S18">
+        <v>0.0002635367363108234</v>
+      </c>
+      <c r="T18">
+        <v>0.0002635367363108234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3203553333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.961066</v>
+      </c>
+      <c r="I19">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="J19">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.027283666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.081851</v>
+      </c>
+      <c r="O19">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="P19">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="Q19">
+        <v>0.3290958014628889</v>
+      </c>
+      <c r="R19">
+        <v>2.961862213166</v>
+      </c>
+      <c r="S19">
+        <v>0.0002763857997718786</v>
+      </c>
+      <c r="T19">
+        <v>0.0002763857997718785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.213859</v>
+      </c>
+      <c r="I20">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J20">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>36.01682133333333</v>
+      </c>
+      <c r="N20">
+        <v>108.050464</v>
+      </c>
+      <c r="O20">
+        <v>0.888210824651586</v>
+      </c>
+      <c r="P20">
+        <v>0.8882108246515859</v>
+      </c>
+      <c r="Q20">
+        <v>14.57311424228622</v>
+      </c>
+      <c r="R20">
+        <v>131.158028180576</v>
+      </c>
+      <c r="S20">
+        <v>0.01223899489788974</v>
+      </c>
+      <c r="T20">
+        <v>0.01223899489788973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.213859</v>
+      </c>
+      <c r="I21">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J21">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6555886666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.966766</v>
+      </c>
+      <c r="O21">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="P21">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="Q21">
+        <v>0.2652640677771111</v>
+      </c>
+      <c r="R21">
+        <v>2.387376609994</v>
+      </c>
+      <c r="S21">
+        <v>0.0002227777479913738</v>
+      </c>
+      <c r="T21">
+        <v>0.0002227777479913738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.213859</v>
+      </c>
+      <c r="I22">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J22">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.7454163333333333</v>
+      </c>
+      <c r="N22">
+        <v>2.236249</v>
+      </c>
+      <c r="O22">
+        <v>0.01838271206698645</v>
+      </c>
+      <c r="P22">
+        <v>0.01838271206698644</v>
+      </c>
+      <c r="Q22">
+        <v>0.3016101083212222</v>
+      </c>
+      <c r="R22">
+        <v>2.714490974891</v>
+      </c>
+      <c r="S22">
+        <v>0.0002533023837955109</v>
+      </c>
+      <c r="T22">
+        <v>0.0002533023837955108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.219071913067304</v>
-      </c>
-      <c r="H16">
-        <v>0.219071913067304</v>
-      </c>
-      <c r="I16">
-        <v>0.008703724621427354</v>
-      </c>
-      <c r="J16">
-        <v>0.008703724621427354</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.877625490142341</v>
-      </c>
-      <c r="N16">
-        <v>0.877625490142341</v>
-      </c>
-      <c r="O16">
-        <v>0.02547159044489152</v>
-      </c>
-      <c r="P16">
-        <v>0.02547159044489152</v>
-      </c>
-      <c r="Q16">
-        <v>0.192263095082113</v>
-      </c>
-      <c r="R16">
-        <v>0.192263095082113</v>
-      </c>
-      <c r="S16">
-        <v>0.000221697708902116</v>
-      </c>
-      <c r="T16">
-        <v>0.000221697708902116</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.213859</v>
+      </c>
+      <c r="I23">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J23">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.125220666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.375662</v>
+      </c>
+      <c r="O23">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="P23">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="Q23">
+        <v>0.4552864110731111</v>
+      </c>
+      <c r="R23">
+        <v>4.097577699658</v>
+      </c>
+      <c r="S23">
+        <v>0.0003823649475026805</v>
+      </c>
+      <c r="T23">
+        <v>0.0003823649475026804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.213859</v>
+      </c>
+      <c r="I24">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J24">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9795256666666666</v>
+      </c>
+      <c r="N24">
+        <v>2.938577</v>
+      </c>
+      <c r="O24">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="P24">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="Q24">
+        <v>0.3963353487381111</v>
+      </c>
+      <c r="R24">
+        <v>3.567018138643</v>
+      </c>
+      <c r="S24">
+        <v>0.0003328558488194566</v>
+      </c>
+      <c r="T24">
+        <v>0.0003328558488194565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.213859</v>
+      </c>
+      <c r="I25">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J25">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.027283666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.081851</v>
+      </c>
+      <c r="O25">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="P25">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="Q25">
+        <v>0.4156591747787778</v>
+      </c>
+      <c r="R25">
+        <v>3.740932573009001</v>
+      </c>
+      <c r="S25">
+        <v>0.0003490846523810984</v>
+      </c>
+      <c r="T25">
+        <v>0.0003490846523810983</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.210735</v>
+      </c>
+      <c r="I26">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J26">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>36.01682133333333</v>
+      </c>
+      <c r="N26">
+        <v>108.050464</v>
+      </c>
+      <c r="O26">
+        <v>0.888210824651586</v>
+      </c>
+      <c r="P26">
+        <v>0.8882108246515859</v>
+      </c>
+      <c r="Q26">
+        <v>14.53560872567111</v>
+      </c>
+      <c r="R26">
+        <v>130.82047853104</v>
+      </c>
+      <c r="S26">
+        <v>0.01220749649481244</v>
+      </c>
+      <c r="T26">
+        <v>0.01220749649481244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H27">
+        <v>1.210735</v>
+      </c>
+      <c r="I27">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J27">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6555886666666667</v>
+      </c>
+      <c r="N27">
+        <v>1.966766</v>
+      </c>
+      <c r="O27">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="P27">
+        <v>0.01616747199490695</v>
+      </c>
+      <c r="Q27">
+        <v>0.2645813814455556</v>
+      </c>
+      <c r="R27">
+        <v>2.381232433010001</v>
+      </c>
+      <c r="S27">
+        <v>0.0002222044048891478</v>
+      </c>
+      <c r="T27">
+        <v>0.0002222044048891478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H28">
+        <v>1.210735</v>
+      </c>
+      <c r="I28">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J28">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.7454163333333333</v>
+      </c>
+      <c r="N28">
+        <v>2.236249</v>
+      </c>
+      <c r="O28">
+        <v>0.01838271206698645</v>
+      </c>
+      <c r="P28">
+        <v>0.01838271206698644</v>
+      </c>
+      <c r="Q28">
+        <v>0.3008338814461112</v>
+      </c>
+      <c r="R28">
+        <v>2.707504933015</v>
+      </c>
+      <c r="S28">
+        <v>0.0002526504821768079</v>
+      </c>
+      <c r="T28">
+        <v>0.0002526504821768079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H29">
+        <v>1.210735</v>
+      </c>
+      <c r="I29">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J29">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.125220666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.375662</v>
+      </c>
+      <c r="O29">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="P29">
+        <v>0.02774906666541499</v>
+      </c>
+      <c r="Q29">
+        <v>0.4541146812855556</v>
+      </c>
+      <c r="R29">
+        <v>4.087032131570001</v>
+      </c>
+      <c r="S29">
+        <v>0.0003813808891433502</v>
+      </c>
+      <c r="T29">
+        <v>0.0003813808891433502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H30">
+        <v>1.210735</v>
+      </c>
+      <c r="I30">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J30">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.9795256666666666</v>
+      </c>
+      <c r="N30">
+        <v>2.938577</v>
+      </c>
+      <c r="O30">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="P30">
+        <v>0.02415608229569642</v>
+      </c>
+      <c r="Q30">
+        <v>0.3953153360105556</v>
+      </c>
+      <c r="R30">
+        <v>3.557838024095</v>
+      </c>
+      <c r="S30">
+        <v>0.0003319992075854154</v>
+      </c>
+      <c r="T30">
+        <v>0.0003319992075854154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.210735</v>
+      </c>
+      <c r="I31">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J31">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.027283666666667</v>
+      </c>
+      <c r="N31">
+        <v>3.081851</v>
+      </c>
+      <c r="O31">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="P31">
+        <v>0.02533384232540931</v>
+      </c>
+      <c r="Q31">
+        <v>0.4145894300538889</v>
+      </c>
+      <c r="R31">
+        <v>3.731304870485001</v>
+      </c>
+      <c r="S31">
+        <v>0.0003481862445313905</v>
+      </c>
+      <c r="T31">
+        <v>0.0003481862445313905</v>
       </c>
     </row>
   </sheetData>
